--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,88 +52,94 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>hand</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>protect</t>
   </si>
   <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +505,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +584,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7207792207792207</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>116</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>0.9347826086956522</v>
+      </c>
+      <c r="L4">
         <v>43</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>0.96875</v>
-      </c>
-      <c r="L4">
-        <v>31</v>
-      </c>
       <c r="M4">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.369098712446352</v>
+        <v>0.2267441860465116</v>
       </c>
       <c r="C5">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="D5">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>147</v>
+        <v>399</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,87 +716,63 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1976744186046512</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C6">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>151</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L6">
+        <v>97</v>
+      </c>
+      <c r="M6">
+        <v>97</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>69</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>36</v>
-      </c>
-      <c r="M6">
-        <v>36</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.1875</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>65</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,21 +784,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8046875</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -828,21 +810,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -854,21 +836,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -880,21 +862,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.803921568627451</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L11">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="M11">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -906,21 +888,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -932,21 +914,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7413793103448276</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L13">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -958,21 +940,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.72</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -984,21 +966,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.72</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1010,21 +992,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6923076923076923</v>
+        <v>0.69375</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1036,21 +1018,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1062,21 +1044,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6896551724137931</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1088,21 +1070,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6575342465753424</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1114,21 +1096,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6363636363636364</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1140,21 +1122,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6363636363636364</v>
+        <v>0.5561357702349869</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1166,21 +1148,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="L22">
         <v>33</v>
       </c>
-      <c r="K22">
-        <v>0.625</v>
-      </c>
-      <c r="L22">
-        <v>15</v>
-      </c>
       <c r="M22">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1192,21 +1174,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5821596244131455</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L23">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1218,21 +1200,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5714285714285714</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1244,21 +1226,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5038759689922481</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L25">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="M25">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1270,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>64</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4722222222222222</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L26">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1296,21 +1278,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4571428571428571</v>
+        <v>0.3598326359832636</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1322,33 +1304,111 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K28">
-        <v>0.4021739130434783</v>
-      </c>
-      <c r="L28">
-        <v>37</v>
-      </c>
-      <c r="M28">
-        <v>37</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>55</v>
+      <c r="K29">
+        <v>0.03467561521252797</v>
+      </c>
+      <c r="L29">
+        <v>31</v>
+      </c>
+      <c r="M29">
+        <v>31</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.0135450723960766</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>31</v>
+      </c>
+      <c r="N30">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.01062459755312299</v>
+      </c>
+      <c r="L31">
+        <v>33</v>
+      </c>
+      <c r="M31">
+        <v>34</v>
+      </c>
+      <c r="N31">
+        <v>0.97</v>
+      </c>
+      <c r="O31">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>3073</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.2/avg_0.004_scores.xlsx
@@ -55,66 +55,69 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
@@ -127,13 +130,10 @@
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>store</t>
   </si>
   <si>
     <t>19</t>
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +590,13 @@
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -616,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6027397260273972</v>
+        <v>0.6267123287671232</v>
       </c>
       <c r="C4">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D4">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -666,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2267441860465116</v>
+        <v>0.1957364341085271</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D5">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.201058201058201</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -766,13 +766,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8048780487804879</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -792,13 +792,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8046875</v>
+        <v>0.8125</v>
       </c>
       <c r="L8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -818,13 +818,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -844,13 +844,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -870,13 +870,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7583333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -896,13 +896,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7464788732394366</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L12">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="M12">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -922,13 +922,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7254901960784313</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -948,13 +948,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7021276595744681</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -974,13 +974,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6944444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1000,13 +1000,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.69375</v>
+        <v>0.70625</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1026,13 +1026,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6698113207547169</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L17">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1052,13 +1052,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6063829787234043</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L18">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M18">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1078,13 +1078,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6041666666666666</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1104,13 +1104,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1130,13 +1130,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5561357702349869</v>
+        <v>0.58</v>
       </c>
       <c r="L21">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1156,13 +1156,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5238095238095238</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1182,13 +1182,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4943820224719101</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>45</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1208,13 +1208,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.461764705882353</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L24">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>183</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1234,13 +1234,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4576271186440678</v>
+        <v>0.4794117647058824</v>
       </c>
       <c r="L25">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="M25">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1260,13 +1260,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4246575342465753</v>
+        <v>0.4677966101694915</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>42</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1286,13 +1286,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3598326359832636</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L27">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>153</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1312,13 +1312,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.3461538461538461</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1338,13 +1338,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.03467561521252797</v>
+        <v>0.3514644351464435</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>863</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1364,19 +1364,19 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.0135450723960766</v>
+        <v>0.01262272089761571</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M30">
         <v>31</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -1390,25 +1390,25 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.01062459755312299</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>3073</v>
+        <v>3072</v>
       </c>
     </row>
   </sheetData>
